--- a/Datascraping/output_excel_files_new/Indian Institute of Technology Guwahati_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Indian Institute of Technology Guwahati_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,22 +525,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>233</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -716,62 +716,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3050</t>
+          <t>711</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3833</t>
+          <t>817</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3685</t>
+          <t>801</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>419</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2063</t>
+          <t>386</t>
         </is>
       </c>
     </row>
@@ -784,42 +784,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -829,17 +829,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -946,23 +946,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1800000(Eithteen-lakh)</t>
+          <t>550000(Five lakh fifty+thousand)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -977,12 +977,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1002,23 +1002,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1870000(Eithteen lakh-seventy thousand)</t>
+          <t>900000(Nine lakh)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1033,12 +1032,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1058,23 +1057,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>182</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>156</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2250000(Tewnty two-lakh fifty thousand)</t>
+          <t>1400000(Fourteen+lakh)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1147,12 +1146,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1162,22 +1161,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1300000(Thirteen lakh)</t>
+          <t>650000(Six lakh fifty+thousand)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1209,23 +1209,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1250000(Twelve lakh-fifty thousand)</t>
+          <t>420000(Four lakh+twenty thousand)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1242,12 +1242,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1257,23 +1257,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1350000(Thirteen lakh-fifty thousand)</t>
+          <t>850000(Eight lakh fifty+thousand)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1420,17 +1420,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1554,25 +1554,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Library ( Books, Journals and e-Resources only)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>122976870 (Twelvw crore twenty nine lakh seventy six-thousand eight hundred ten )</t>
+          <t>25637 (Twenty five thousand six hundred and thirty seven)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>119566922 (Eleven crore ninety five lakh sixty six thousand-nine hundred twenty two)</t>
+          <t>1144508 (Eleven lakh forty four thousand five hundred and+eight)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>108386005 (Ten crore eighty three lakh eighty six thousand-five only)</t>
+          <t>9219907 (Ninety two lakh nineteen thousand nine hundred and+seven)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1588,25 +1587,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
+          <t>New Equipment and software for Laboratories</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>317904320 (Thirty one crore seventy nine lakh four thousand-three hundred twenty)</t>
+          <t>616536 (Six lakh sixteen thousand five hundred and thirty six)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>473723128 (Forty seven crore thirty seven lakh twenty three-thousand one hundred twenty eight)</t>
+          <t>24104645 (Two crore forty one lakh four thousand six hundred+and forty five)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>237876318 (Twenty three crore seventy eight lakh seventy six-thousand three hundred eighteen)</t>
+          <t>24036194 (Two crore forty lakh thirty six thousand one hundred+and ninety four)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1627,14 +1625,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14081657 (One crore forty lakh eight one thousand six hundred-fifty seven)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15072578 (One crore fifty lakh seventy two thousand five-hundred seventy eight)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1655,22 +1651,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Studios</t>
+          <t>Other expenditure on creation of Capital Assets (For setting up+classrooms, seminar hall, conference hall , library, Lab, Engg+workshops excluding expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>355596 (Three lakh fifty five thousand five hundred and ninety+six)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>15873600 (One crore fifty eight lakh seventy three thousand six+hundred)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>93457666 (Nine crore thirty four lakh fifty seven thousand six+hundred and sixty six)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1686,26 +1687,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>689764913 (Sixty eight crore ninety seven lakh sixty four-thousand nine hundred thirteen)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>72754710 (Seven crore twenty seven lakh fifty four thousand-seven hundred ten)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>113690263 (Eleven crore thirty six lakh ninety thousand two-hundred sixty three)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1719,24 +1716,20 @@
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1750,22 +1743,14 @@
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1779,12 +1764,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>117848083 (Eleven crore seventy eight lakh forty eight+thousand and eighty three)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>101603140 (Ten crore sixteen lakh three thousand one+hundred and forty)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>92187013 (Nine crore twenty one lakh eighty seven thousand+and thirteen)</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1798,25 +1798,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1748454897 (One seventy four crore  eighty four lakh fifty four-thousand eight hundred ninety seven)</t>
+          <t>9369613 (Ninety three lakh sixty nine thousand six hundred+and thirteen)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1815640434 (One eighty one crore fifty six lakh forty thousand-four hundred thirty four)</t>
+          <t>9906539 (Ninety nine lakh six thousand five hundred and thirty+nine)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1531526457 (One fifty three crore fifteen lakh twenty six-thousand four hundred fifty seven)</t>
+          <t>32656879 (Three crore sixty five lakh sixty eight thousand eight+hundred and seventy nine)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1832,27 +1834,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>810328532 (Eighty one crore three lakh twenty eight thousand-five hundred thirty two)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1700086514 (One seventy crore eighty six thousand five-hundred fourteen)</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1677471056 (One sixty seven crore seventy four lakh seventy-one thousand fifty six)</t>
+          <t>1359853 (Thirteen lakh fifty nine thousand eight hundred and+fifty three)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1868,25 +1866,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12338782 (One crore twenty three lakh thirty eight thousand-seven hundred eighty two)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11850148 (One crore eighteen lakh fifty thousand one hundred-forty eight)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13898447 (One crore thirty eight lakh ninety eight thousand-four hundred forty seven)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1902,22 +1897,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1933,22 +1928,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1964,22 +1959,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>5922007</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>8032750</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>3374870</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1995,22 +1990,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1402100000</t>
+          <t>Fifty nine lakh twenty two thousand and seven</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1964400000</t>
+          <t>Eighty lakh thirty two thousand seven hundred and fifty</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>795500000</t>
+          <t>Thirty three lakh seventy four thousand eight hundred and+seventy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2026,22 +2022,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>One forty crore twenty one lakh</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>One ninety six crore forty four lakh</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Seventy nine crore fifty five lakh</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2057,22 +2053,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2088,22 +2084,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2119,22 +2115,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>5303502</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>2300000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>3545000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2150,22 +2146,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>116400000</t>
+          <t>Fifty three lakh three thousand five hundred and two</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>89700000</t>
+          <t>Twenty three lakh</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>112700000</t>
+          <t>Thirty five lakh forty five thousand</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2181,24 +2177,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Eleven crore sixty four lakh</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Eight crore ninety seven lakh</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Eleven crore twenty seven lakh</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2212,24 +2200,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2243,25 +2224,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Total no. of Executive Development Programs/ Management-Development Programs</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2275,24 +2247,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Total no. of Participants</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>709</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2303,163 +2267,6 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging-&amp; Boarding Charges)</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>12513845</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>22150000</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>350000</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Total Annual Earnings in Words</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>One crore twenty five lakh thirteen thousand eight hundred-forty five</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Two crore twenty one lakh fifty thousand</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Three lakh fifty thousand</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Number of faculty members entered</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>536</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
